--- a/resultados2.xlsx
+++ b/resultados2.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jccaleroe\Downloads\Distribuida\Paralela\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="secuencial" sheetId="1" r:id="rId1"/>
     <sheet name="Hilos" sheetId="2" r:id="rId2"/>
     <sheet name="Forks" sheetId="3" r:id="rId3"/>
+    <sheet name="grafica unificada" sheetId="4" r:id="rId4"/>
+    <sheet name="speed up" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="263">
   <si>
     <t>Matriz N =  16</t>
   </si>
@@ -796,16 +793,32 @@
   <si>
     <t>N = 32</t>
   </si>
+  <si>
+    <t>hilos\tamaño</t>
+  </si>
+  <si>
+    <t>procesos\tam</t>
+  </si>
+  <si>
+    <t>secuencial</t>
+  </si>
+  <si>
+    <t>Speed hil</t>
+  </si>
+  <si>
+    <t>Speed proc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +835,12 @@
       <b/>
       <i/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
@@ -855,11 +874,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -882,9 +903,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -921,6 +942,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -929,26 +951,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -997,7 +999,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1008,7 +1010,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1087,7 +1089,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F418-4370-B2FD-16F7E0F104E6}"/>
             </c:ext>
@@ -1104,11 +1106,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="513200280"/>
-        <c:axId val="513198968"/>
+        <c:axId val="203082752"/>
+        <c:axId val="207444224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513200280"/>
+        <c:axId val="203082752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,6 +1156,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1162,26 +1165,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1217,10 +1200,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513198968"/>
+        <c:crossAx val="207444224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1228,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513198968"/>
+        <c:axId val="207444224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,6 +1243,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1268,32 +1252,12 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513200280"/>
+        <c:crossAx val="203082752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1331,7 +1295,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1343,9 +1307,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1387,6 +1351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1395,26 +1360,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1474,7 +1419,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1E65-4696-A7DC-70D86C191966}"/>
             </c:ext>
@@ -1489,11 +1434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="475280352"/>
-        <c:axId val="475281664"/>
+        <c:axId val="217852928"/>
+        <c:axId val="217855104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="475280352"/>
+        <c:axId val="217852928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,6 +1470,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1533,26 +1479,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1588,17 +1514,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475281664"/>
+        <c:crossAx val="217855104"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475281664"/>
+        <c:axId val="217855104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,6 +1571,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1652,26 +1580,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1701,10 +1609,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475280352"/>
+        <c:crossAx val="217852928"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1741,7 +1650,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1753,9 +1662,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1797,6 +1706,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1805,26 +1715,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1884,7 +1774,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D8B-4081-8949-FA5EF8F619BC}"/>
             </c:ext>
@@ -1899,11 +1789,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="472326936"/>
-        <c:axId val="472325952"/>
+        <c:axId val="217884160"/>
+        <c:axId val="217886080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="472326936"/>
+        <c:axId val="217884160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,6 +1825,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1943,26 +1834,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1998,17 +1869,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472325952"/>
+        <c:crossAx val="217886080"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472325952"/>
+        <c:axId val="217886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,6 +1926,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2062,26 +1935,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2111,10 +1964,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472326936"/>
+        <c:crossAx val="217884160"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2151,7 +2005,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2163,9 +2017,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2207,6 +2061,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2215,26 +2070,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2294,7 +2129,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-49D4-4E5A-8894-011FC1F40B75}"/>
             </c:ext>
@@ -2309,11 +2144,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="473674792"/>
-        <c:axId val="473675120"/>
+        <c:axId val="236679168"/>
+        <c:axId val="236681088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="473674792"/>
+        <c:axId val="236679168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,6 +2180,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2353,26 +2189,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2408,17 +2224,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473675120"/>
+        <c:crossAx val="236681088"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="473675120"/>
+        <c:axId val="236681088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,6 +2281,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2472,26 +2290,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2521,10 +2319,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473674792"/>
+        <c:crossAx val="236679168"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2561,7 +2360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2573,9 +2372,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2617,6 +2416,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2625,26 +2425,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2704,7 +2484,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6E71-427A-B078-93B60109BE7C}"/>
             </c:ext>
@@ -2719,11 +2499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478886520"/>
-        <c:axId val="478885536"/>
+        <c:axId val="236710144"/>
+        <c:axId val="236716416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="478886520"/>
+        <c:axId val="236710144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,6 +2535,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2763,26 +2544,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2818,17 +2579,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478885536"/>
+        <c:crossAx val="236716416"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478885536"/>
+        <c:axId val="236716416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,6 +2641,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2887,26 +2650,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2936,10 +2679,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478886520"/>
+        <c:crossAx val="236710144"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2976,7 +2720,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2988,9 +2732,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3032,6 +2776,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3040,26 +2785,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3119,7 +2844,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-77D2-4E48-8199-A49B6EF344C5}"/>
             </c:ext>
@@ -3134,11 +2859,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521269640"/>
-        <c:axId val="521268656"/>
+        <c:axId val="236745472"/>
+        <c:axId val="236747392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521269640"/>
+        <c:axId val="236745472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,6 +2895,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3178,26 +2904,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3233,17 +2939,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521268656"/>
+        <c:crossAx val="236747392"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="521268656"/>
+        <c:axId val="236747392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,6 +2996,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3297,26 +3005,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3346,10 +3034,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521269640"/>
+        <c:crossAx val="236745472"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3386,7 +3075,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3398,9 +3087,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3457,6 +3146,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3465,40 +3155,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3558,7 +3214,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BCD0-4347-92F5-4C7923AEDD19}"/>
             </c:ext>
@@ -3573,11 +3229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478623760"/>
-        <c:axId val="478624416"/>
+        <c:axId val="236776448"/>
+        <c:axId val="238101632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="478623760"/>
+        <c:axId val="236776448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,6 +3265,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3617,26 +3274,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3672,17 +3309,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478624416"/>
+        <c:crossAx val="238101632"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478624416"/>
+        <c:axId val="238101632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3728,6 +3366,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3736,26 +3375,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3785,10 +3404,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478623760"/>
+        <c:crossAx val="236776448"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3825,7 +3445,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3836,10 +3456,1262 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>Hilos (Número)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50787143168285387"/>
+          <c:y val="1.5449975048898563E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tamaño 16</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tamaño 32</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0000000000000008E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tamaño 64</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tamaño 128</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="214502784"/>
+        <c:axId val="75166848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="214502784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75166848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75166848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t>Tiempo (sg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3131739334270981E-2"/>
+              <c:y val="0.28077227491028672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214502784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>Hilos (Número)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50787143168285387"/>
+          <c:y val="1.5449975048898563E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tamaño 256</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6200000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tamaño 512</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12810000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tamaño 1024</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4262999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3346000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7909999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="208395264"/>
+        <c:axId val="210297600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="208395264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="210297600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210297600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t>Tiempo (sg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3131739334270981E-2"/>
+              <c:y val="0.28077227491028672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="208395264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>Hilos (Número)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50787143168285387"/>
+          <c:y val="1.5449975048898563E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tamaño 16</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tamaño 32</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0000000000000008E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tamaño 64</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tamaño 128</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Tamaño 256</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.7800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6200000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Tamaño 512</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12810000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Tamaño 1024</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4262999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3346000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7909999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="210908288"/>
+        <c:axId val="210909824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="210908288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="210909824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210909824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t>Tiempo (sg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3131739334270981E-2"/>
+              <c:y val="0.28077227491028672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="210908288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>Procesos (Número)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50787143168285387"/>
+          <c:y val="1.5449975048898563E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tamaño 16</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$C$12:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tamaño 32</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$D$12:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000006E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tamaño 64</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$E$12:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tamaño 128</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$F$12:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="214710912"/>
+        <c:axId val="214811008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="214710912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214811008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214811008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t>Tiempo (sg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3131739334270981E-2"/>
+              <c:y val="0.28077227491028672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214710912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3880,6 +4752,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3888,26 +4761,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3977,7 +4830,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6618-4BBB-B961-B74A28844BBA}"/>
             </c:ext>
@@ -3993,11 +4846,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="512558512"/>
-        <c:axId val="512556216"/>
+        <c:axId val="207473664"/>
+        <c:axId val="209261696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="512558512"/>
+        <c:axId val="207473664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,6 +4882,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4037,26 +4891,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4092,10 +4926,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512556216"/>
+        <c:crossAx val="209261696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4103,7 +4937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512556216"/>
+        <c:axId val="209261696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,6 +4983,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4157,26 +4992,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4206,10 +5021,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512558512"/>
+        <c:crossAx val="207473664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4247,7 +5062,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4258,10 +5073,1004 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>Procesos (Número)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50787143168285387"/>
+          <c:y val="1.5449975048898563E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tamaño 16</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$C$12:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tamaño 32</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$D$12:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000006E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tamaño 64</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$E$12:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tamaño 128</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$F$12:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Tamaño 256</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$G$12:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0800000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Tamaño 512</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$H$12:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Tamaño 1024</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$I$12:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8174999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4193999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3247999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43560960"/>
+        <c:axId val="43563264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43560960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43563264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43563264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t>Tiempo (sg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3131739334270981E-2"/>
+              <c:y val="0.28077227491028672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43560960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>Procesos (Número)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50787143168285387"/>
+          <c:y val="1.5449975048898563E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tamaño 256</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$G$12:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0800000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tamaño 512</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$H$12:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tamaño 1024</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grafica unificada'!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grafica unificada'!$I$12:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8174999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4193999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3247999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="207759616"/>
+        <c:axId val="207918208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="207759616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207918208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="207918208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t>Tiempo (sg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3131739334270981E-2"/>
+              <c:y val="0.28077227491028672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207759616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>Hilos (Número)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50787143168285387"/>
+          <c:y val="1.5449975048898563E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SpeeUp 1024</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'speed up'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'speed up'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0179897454031117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0165484633569739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9595219737856588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9351292857956488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8577889447236182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="216365312"/>
+        <c:axId val="216371968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="216365312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216371968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216371968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t>SpeedUp (aceleración)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3131739334270981E-2"/>
+              <c:y val="0.28077227491028672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216365312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>Procesos (Número)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50787143168285387"/>
+          <c:y val="1.5449975048898563E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SpeeUp 1024</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'speed up'!$E$11:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'speed up'!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0134653465346535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0206176522196881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0781099615014438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="217001344"/>
+        <c:axId val="217037056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="217001344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217037056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217037056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t>SpeedUp (aceleración)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3131739334270981E-2"/>
+              <c:y val="0.28077227491028672"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217001344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4299,6 +6108,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4307,26 +6117,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4396,7 +6186,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-217B-4A5F-BE74-6314BD5EA3EC}"/>
             </c:ext>
@@ -4412,11 +6202,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="592592952"/>
-        <c:axId val="592595576"/>
+        <c:axId val="209280000"/>
+        <c:axId val="209294464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="592592952"/>
+        <c:axId val="209280000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4448,6 +6238,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4456,26 +6247,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4511,10 +6282,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592595576"/>
+        <c:crossAx val="209294464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4522,7 +6293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="592595576"/>
+        <c:axId val="209294464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,6 +6339,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4576,26 +6348,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4625,10 +6377,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592592952"/>
+        <c:crossAx val="209280000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4666,7 +6418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4678,9 +6430,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4722,6 +6474,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4730,26 +6483,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4819,7 +6552,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ECFF-4985-ABD8-57B43A91344D}"/>
             </c:ext>
@@ -4835,11 +6568,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="356218536"/>
-        <c:axId val="356219848"/>
+        <c:axId val="207095296"/>
+        <c:axId val="207097216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="356218536"/>
+        <c:axId val="207095296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4871,6 +6604,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4879,26 +6613,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4934,10 +6648,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356219848"/>
+        <c:crossAx val="207097216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4945,7 +6659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356219848"/>
+        <c:axId val="207097216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4991,6 +6705,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4999,26 +6714,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5048,10 +6743,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356218536"/>
+        <c:crossAx val="207095296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5089,7 +6784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5101,9 +6796,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5140,6 +6835,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5148,26 +6844,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5237,7 +6913,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-977D-47C0-9C84-90542C06E64D}"/>
             </c:ext>
@@ -5253,11 +6929,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="589689456"/>
-        <c:axId val="589689784"/>
+        <c:axId val="207142912"/>
+        <c:axId val="207144832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="589689456"/>
+        <c:axId val="207142912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5289,6 +6965,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5297,26 +6974,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5352,10 +7009,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589689784"/>
+        <c:crossAx val="207144832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5363,7 +7020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589689784"/>
+        <c:axId val="207144832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,6 +7066,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5417,26 +7075,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5466,10 +7104,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589689456"/>
+        <c:crossAx val="207142912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5507,7 +7145,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5519,9 +7157,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5563,6 +7201,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5571,26 +7210,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5660,7 +7279,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F65-4E8E-87F5-44CC30ACE312}"/>
             </c:ext>
@@ -5676,11 +7295,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="354881856"/>
-        <c:axId val="603862760"/>
+        <c:axId val="209654528"/>
+        <c:axId val="209656448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="354881856"/>
+        <c:axId val="209654528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5712,6 +7331,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5720,26 +7340,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5775,10 +7375,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603862760"/>
+        <c:crossAx val="209656448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5786,7 +7386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603862760"/>
+        <c:axId val="209656448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,6 +7432,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5840,26 +7441,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5889,10 +7470,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354881856"/>
+        <c:crossAx val="209654528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5930,7 +7511,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5942,9 +7523,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5986,6 +7567,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5994,26 +7576,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6083,7 +7645,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D927-4C58-A9A6-6B4742FB1590}"/>
             </c:ext>
@@ -6099,11 +7661,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="593827824"/>
-        <c:axId val="591595912"/>
+        <c:axId val="209697792"/>
+        <c:axId val="209699968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="593827824"/>
+        <c:axId val="209697792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6135,6 +7697,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6143,26 +7706,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6198,10 +7741,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591595912"/>
+        <c:crossAx val="209699968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6209,7 +7752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="591595912"/>
+        <c:axId val="209699968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6255,6 +7798,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6263,26 +7807,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6312,10 +7836,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593827824"/>
+        <c:crossAx val="209697792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6353,7 +7877,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6365,9 +7889,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6409,6 +7933,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6417,26 +7942,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6506,7 +8011,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-10CC-4FE8-BD4C-56063616A42B}"/>
             </c:ext>
@@ -6522,11 +8027,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="603688072"/>
-        <c:axId val="603683808"/>
+        <c:axId val="211359616"/>
+        <c:axId val="211369984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603688072"/>
+        <c:axId val="211359616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,6 +8063,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6566,26 +8072,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6621,10 +8107,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603683808"/>
+        <c:crossAx val="211369984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6632,7 +8118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603683808"/>
+        <c:axId val="211369984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,6 +8164,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6686,26 +8173,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6735,10 +8202,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603688072"/>
+        <c:crossAx val="211359616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6776,7 +8243,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6788,9 +8255,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6832,6 +8299,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6840,26 +8308,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6917,7 +8365,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1B5B-4BCC-B3A2-D077C38A6243}"/>
             </c:ext>
@@ -6932,11 +8380,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478893408"/>
-        <c:axId val="478891112"/>
+        <c:axId val="215388928"/>
+        <c:axId val="215390848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="478893408"/>
+        <c:axId val="215388928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6982,6 +8430,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6990,26 +8439,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7045,10 +8474,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478891112"/>
+        <c:crossAx val="215390848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7056,7 +8485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478891112"/>
+        <c:axId val="215390848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7102,6 +8531,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7110,26 +8540,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7165,10 +8575,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478893408"/>
+        <c:crossAx val="215388928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7206,7 +8616,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15957,6 +17367,270 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>680197</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>746872</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126908</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>649380</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>718297</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279588</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83765</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>705411</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111499</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>106178</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111499</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139796</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560855</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389405</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16000,7 +17674,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -16052,7 +17726,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -16246,7 +17920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16256,11 +17930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -21559,11 +23233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF423"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="Q197" workbookViewId="0">
+      <selection activeCell="AF217" sqref="AF217:AF221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
@@ -35019,11 +36693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH255"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="V119" workbookViewId="0">
+      <selection activeCell="AH133" sqref="AH133:AH135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" t="s">
@@ -43065,4 +44739,463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <v>256</v>
+      </c>
+      <c r="H3">
+        <v>512</v>
+      </c>
+      <c r="I3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.4000000000000006E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>2.3000000000000008E-3</v>
+      </c>
+      <c r="F4">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="G4">
+        <v>5.7800000000000004E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.4365</v>
+      </c>
+      <c r="I4">
+        <v>6.7872000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="F5">
+        <v>4.3000000000000009E-3</v>
+      </c>
+      <c r="G5">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.22080000000000002</v>
+      </c>
+      <c r="I5">
+        <v>3.4262999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="D6">
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="F6">
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="I6">
+        <v>2.3346000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.4900000000000002E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.12250000000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.7558</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="F8">
+        <v>3.6000000000000003E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.6200000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.12810000000000002</v>
+      </c>
+      <c r="I8">
+        <v>1.7909999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11">
+        <v>256</v>
+      </c>
+      <c r="H11">
+        <v>512</v>
+      </c>
+      <c r="I11">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="E12">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.4476</v>
+      </c>
+      <c r="I12">
+        <v>6.8174999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="F13">
+        <v>4.000000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <v>2.69E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.22180000000000005</v>
+      </c>
+      <c r="I13">
+        <v>3.4193999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.0800000000000003E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.1983</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3.3247999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2">
+        <v>1024</v>
+      </c>
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6.7872000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3.4262999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <f>C18/C3</f>
+        <v>1.0179897454031117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2.3346000000000005</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <f>$C18/C4</f>
+        <v>2.0165484633569739</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.7558</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <f>$C18/C5</f>
+        <v>2.9595219737856588</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <f>$C18/C6</f>
+        <v>3.9351292857956488</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <f>$C18/C7</f>
+        <v>3.8577889447236182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10">
+        <v>1024</v>
+      </c>
+      <c r="E10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>6.8174999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f>C18/C11</f>
+        <v>1.0134653465346535</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3.4193999999999996</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <f>C18/C12</f>
+        <v>2.0206176522196881</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.3247999999999998</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <f>C18/C13</f>
+        <v>2.0781099615014438</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>1024</v>
+      </c>
+      <c r="C18">
+        <v>6.9093</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>